--- a/data/trans_orig/P15D$nada-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P15D$nada-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>5266</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1966</v>
+        <v>1951</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>9103</v>
+        <v>9020</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.418008023594632</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1560334403091073</v>
+        <v>0.1548459175840567</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7225648944658568</v>
+        <v>0.7160112599191253</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4455</v>
+        <v>4436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1263752304839248</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5739818109588255</v>
+        <v>0.5715211615968864</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -786,19 +786,19 @@
         <v>6247</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2401</v>
+        <v>2735</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11226</v>
+        <v>11345</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3068374911178938</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1179257409888547</v>
+        <v>0.1343243953783777</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5514063237527091</v>
+        <v>0.5572820027994433</v>
       </c>
     </row>
     <row r="5">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4137</v>
+        <v>4799</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07536087108545717</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3283708467830309</v>
+        <v>0.3809544121152752</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4470</v>
+        <v>4435</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1273220227841874</v>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5759282763151328</v>
+        <v>0.571421643413255</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -860,7 +860,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6152</v>
+        <v>6048</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.09516848202261113</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3022120001359295</v>
+        <v>0.2971039535911402</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>5268</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2062</v>
+        <v>1940</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>8780</v>
+        <v>8893</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4181711191242374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1636938290306407</v>
+        <v>0.1539657543015653</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6969406020628449</v>
+        <v>0.7058888926713935</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>5</v>
@@ -907,7 +907,7 @@
         <v>5792</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2208</v>
+        <v>2652</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>7761</v>
@@ -916,7 +916,7 @@
         <v>0.7463027467318878</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2844955250678294</v>
+        <v>0.3417678518638023</v>
       </c>
       <c r="P6" s="6" t="n">
         <v>1</v>
@@ -928,19 +928,19 @@
         <v>11060</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6134</v>
+        <v>6502</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>15575</v>
+        <v>15428</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5432550212962183</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3013134893620625</v>
+        <v>0.319400579672098</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7650601293556241</v>
+        <v>0.7578452245438996</v>
       </c>
     </row>
     <row r="7">
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>4897</v>
+        <v>5397</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08845998619567344</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3887501335644277</v>
+        <v>0.4284132482562445</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>5395</v>
+        <v>5542</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05473900556327671</v>
@@ -1003,7 +1003,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2649956774946795</v>
+        <v>0.2722268326017752</v>
       </c>
     </row>
     <row r="8">
@@ -1024,19 +1024,19 @@
         <v>4528</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1160</v>
+        <v>1536</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8142</v>
+        <v>8110</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3409391576914863</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08735318376760148</v>
+        <v>0.1156202789709831</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6130870186921569</v>
+        <v>0.6106328072300909</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>2</v>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5588</v>
+        <v>4804</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4513066702645568</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>1</v>
+        <v>0.8596748068301759</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -1066,19 +1066,19 @@
         <v>7050</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3498</v>
+        <v>3344</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>11959</v>
+        <v>11546</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3736238516692942</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1853710715935831</v>
+        <v>0.1772498841462286</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6338488526841588</v>
+        <v>0.6119196037089077</v>
       </c>
     </row>
     <row r="9">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5141</v>
+        <v>5206</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1408505919875774</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3871216151943493</v>
+        <v>0.3920023227241751</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3926</v>
+        <v>3707</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1615281567815568</v>
@@ -1128,7 +1128,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7026471306760226</v>
+        <v>0.6633995092252932</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -1137,19 +1137,19 @@
         <v>2773</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>6792</v>
+        <v>7366</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1469741319835527</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0</v>
+        <v>0.04590512574556102</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3599593557226958</v>
+        <v>0.3903900118244737</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>4857</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1082</v>
+        <v>1933</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8872</v>
+        <v>9062</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3656814997867318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08145924966834678</v>
+        <v>0.145555425434971</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6680546287359217</v>
+        <v>0.6823234379968705</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -1208,19 +1208,19 @@
         <v>7020</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3067</v>
+        <v>3109</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12520</v>
+        <v>12070</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3720437640673805</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1625358499251694</v>
+        <v>0.1647807484912532</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6635735433676604</v>
+        <v>0.6397010923920237</v>
       </c>
     </row>
     <row r="11">
@@ -1240,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6379</v>
+        <v>5968</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1525287505342046</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4803104835565157</v>
+        <v>0.4493706554437403</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6333</v>
+        <v>6493</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1073582522797726</v>
@@ -1283,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3356307817887559</v>
+        <v>0.3441238232740743</v>
       </c>
     </row>
     <row r="12">
@@ -1304,19 +1304,19 @@
         <v>5569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2117</v>
+        <v>1918</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11031</v>
+        <v>11404</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1968941502168253</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.07485679931111727</v>
+        <v>0.06780268948809411</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3899953205701117</v>
+        <v>0.4031653939802647</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>3</v>
@@ -1325,7 +1325,7 @@
         <v>2800</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>795</v>
+        <v>774</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>4957</v>
@@ -1334,7 +1334,7 @@
         <v>0.5649551687178628</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1603581232165274</v>
+        <v>0.1560886049877384</v>
       </c>
       <c r="P12" s="6" t="n">
         <v>1</v>
@@ -1346,19 +1346,19 @@
         <v>8370</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3963</v>
+        <v>3786</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>14160</v>
+        <v>14420</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2517824150840268</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1192105939131172</v>
+        <v>0.113888712888722</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4259731876002175</v>
+        <v>0.4337791260503278</v>
       </c>
     </row>
     <row r="13">
@@ -1375,19 +1375,19 @@
         <v>4746</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1767</v>
+        <v>1806</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9984</v>
+        <v>9538</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1677784557760948</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.0624596840417186</v>
+        <v>0.06386403016935181</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3529898622776864</v>
+        <v>0.3372218476256717</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1409,19 +1409,19 @@
         <v>4746</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1766</v>
+        <v>1763</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10059</v>
+        <v>9977</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1427579622797905</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05311224492340222</v>
+        <v>0.05304113696301919</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3025863085239281</v>
+        <v>0.300124053752924</v>
       </c>
     </row>
     <row r="14">
@@ -1438,19 +1438,19 @@
         <v>13319</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>8167</v>
+        <v>8159</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>18804</v>
+        <v>18739</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.4709000861825303</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2887336491297878</v>
+        <v>0.288450548263371</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6647893497232319</v>
+        <v>0.6625135658157578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -1462,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>3850</v>
+        <v>3642</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1995996539898638</v>
@@ -1471,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7767458916857402</v>
+        <v>0.7348193932501182</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>14</v>
@@ -1480,19 +1480,19 @@
         <v>14309</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>9159</v>
+        <v>8684</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20800</v>
+        <v>20212</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4304415501456983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2755186271187555</v>
+        <v>0.2612394691231786</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6257094848167243</v>
+        <v>0.6080378953005133</v>
       </c>
     </row>
     <row r="15">
@@ -1509,19 +1509,19 @@
         <v>4651</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1032</v>
+        <v>1116</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10450</v>
+        <v>10534</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1644273078245496</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03648578199081214</v>
+        <v>0.03946895865434177</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3694584534303925</v>
+        <v>0.3724345778107047</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4078</v>
+        <v>4183</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2354451772922734</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8226626527291551</v>
+        <v>0.8439113950122616</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>5</v>
@@ -1551,19 +1551,19 @@
         <v>5818</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>2502</v>
+        <v>2135</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>12538</v>
+        <v>12374</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1750180724904844</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.07527590464636665</v>
+        <v>0.06422607589447793</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.377170756096188</v>
+        <v>0.3722424101600905</v>
       </c>
     </row>
     <row r="16">
@@ -1587,16 +1587,16 @@
         <v>3895</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13836</v>
+        <v>14713</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2098704011208927</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0998232508066761</v>
+        <v>0.09980768551916568</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3545474002408918</v>
+        <v>0.3770414321262423</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6048</v>
+        <v>5776</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.07369692770856007</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2418150032696034</v>
+        <v>0.2309418304298407</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -1626,19 +1626,19 @@
         <v>10033</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5288</v>
+        <v>5157</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17612</v>
+        <v>18589</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1566840436982281</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0825813328145715</v>
+        <v>0.08053828965355815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2750426186587866</v>
+        <v>0.2903085650582279</v>
       </c>
     </row>
     <row r="17">
@@ -1655,19 +1655,19 @@
         <v>4210</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1013</v>
+        <v>1052</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9414</v>
+        <v>9469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1078759975043426</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02595383344599661</v>
+        <v>0.02695751582448533</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.241234406393401</v>
+        <v>0.2426597377548536</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5</v>
@@ -1676,19 +1676,19 @@
         <v>5421</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2168</v>
+        <v>2032</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11047</v>
+        <v>11027</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2167550909103569</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08669489842769776</v>
+        <v>0.08125770354628581</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4416881432673299</v>
+        <v>0.4409042489713359</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>9</v>
@@ -1697,19 +1697,19 @@
         <v>9631</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4483</v>
+        <v>5148</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>16146</v>
+        <v>17431</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.150401771670455</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07001336845880564</v>
+        <v>0.08039401451939761</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2521510944478373</v>
+        <v>0.2722179351735761</v>
       </c>
     </row>
     <row r="18">
@@ -1726,19 +1726,19 @@
         <v>18810</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>12460</v>
+        <v>12579</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>25699</v>
+        <v>25508</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4820238711231147</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3192923458713803</v>
+        <v>0.3223482668885874</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6585669241840436</v>
+        <v>0.6536780569950879</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>17</v>
@@ -1747,19 +1747,19 @@
         <v>17746</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>12377</v>
+        <v>12318</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>21794</v>
+        <v>21943</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.7095479813810831</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4948907968227899</v>
+        <v>0.4925416126504475</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8714053976966568</v>
+        <v>0.8773824827793616</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>35</v>
@@ -1768,19 +1768,19 @@
         <v>36555</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>28839</v>
+        <v>27164</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>45552</v>
+        <v>43564</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5708897739103026</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4503814567564983</v>
+        <v>0.424230955471378</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7113940521186258</v>
+        <v>0.6803517076549302</v>
       </c>
     </row>
     <row r="19">
@@ -1797,19 +1797,19 @@
         <v>7814</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3107</v>
+        <v>3757</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>13702</v>
+        <v>14677</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.20022973025165</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.07961301866192061</v>
+        <v>0.09627256543096192</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3511212904114784</v>
+        <v>0.3761173705167944</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>0</v>
@@ -1831,19 +1831,19 @@
         <v>7813</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3143</v>
+        <v>3710</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15342</v>
+        <v>15164</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1220244107210144</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0490819328837119</v>
+        <v>0.05793652053992947</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2396009793326425</v>
+        <v>0.2368170801790171</v>
       </c>
     </row>
     <row r="20">
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5523</v>
+        <v>6263</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1505460400266918</v>
@@ -1876,7 +1876,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4368796823021079</v>
+        <v>0.4954451014890277</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>3</v>
@@ -1885,19 +1885,19 @@
         <v>2885</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>870</v>
+        <v>875</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>6991</v>
+        <v>7787</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1285123069902167</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03873671586570022</v>
+        <v>0.03897442257650035</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.311443224006679</v>
+        <v>0.3468917350276691</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>5</v>
@@ -1906,19 +1906,19 @@
         <v>4788</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1427</v>
+        <v>1829</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>9441</v>
+        <v>9584</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.136450167061242</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.040660351446307</v>
+        <v>0.05212148947962481</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.269052797823757</v>
+        <v>0.2731295567618884</v>
       </c>
     </row>
     <row r="21">
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7225</v>
+        <v>7650</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2159789034746886</v>
@@ -1947,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5715816386146958</v>
+        <v>0.6051885914775669</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>7464</v>
+        <v>6281</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.07385308341719059</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3325030909129182</v>
+        <v>0.2797957068651215</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1977,19 +1977,19 @@
         <v>4388</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1094</v>
+        <v>1076</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>10816</v>
+        <v>10705</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1250552501235104</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.03117658389369276</v>
+        <v>0.03067344279161532</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3082352971598395</v>
+        <v>0.3050706075342305</v>
       </c>
     </row>
     <row r="22">
@@ -2006,19 +2006,19 @@
         <v>6498</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2613</v>
+        <v>2716</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>9860</v>
+        <v>10146</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5140064348144259</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2067266615783784</v>
+        <v>0.2148713051249689</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7800321767474168</v>
+        <v>0.8026654608067386</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>17</v>
@@ -2027,19 +2027,19 @@
         <v>17170</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>12135</v>
+        <v>12094</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>20546</v>
+        <v>20553</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7648998258159218</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5405657070533105</v>
+        <v>0.5387561228793379</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9152925466630184</v>
+        <v>0.915586814074104</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -2048,19 +2048,19 @@
         <v>23669</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>17621</v>
+        <v>17576</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>29134</v>
+        <v>29009</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.6745131161640413</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5021556202409748</v>
+        <v>0.5008793054404687</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8302660010141514</v>
+        <v>0.8267166945038976</v>
       </c>
     </row>
     <row r="23">
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>6790</v>
+        <v>5665</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1194686216841937</v>
@@ -2089,7 +2089,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5371297066894656</v>
+        <v>0.448115610855616</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>3854</v>
+        <v>3747</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03273478377667095</v>
@@ -2110,7 +2110,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1716785874595018</v>
+        <v>0.1669370229919676</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2</v>
@@ -2122,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>8878</v>
+        <v>8007</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.0639814666512062</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2529973925509424</v>
+        <v>0.2281854230139491</v>
       </c>
     </row>
     <row r="24">
@@ -2152,19 +2152,19 @@
         <v>6174</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>2080</v>
+        <v>2575</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10416</v>
+        <v>10255</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3813070305224005</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1284884922153111</v>
+        <v>0.1589998062791862</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.6432541660077656</v>
+        <v>0.633335655838105</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>5</v>
@@ -2173,19 +2173,19 @@
         <v>4681</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9792</v>
+        <v>9546</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1669191006749274</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0633256206321908</v>
+        <v>0.06337252192235933</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3492028580203325</v>
+        <v>0.340422759927407</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>11</v>
@@ -2194,19 +2194,19 @@
         <v>10855</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>6169</v>
+        <v>5464</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17902</v>
+        <v>16766</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2453973702139408</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1394618462942998</v>
+        <v>0.1235237021361743</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4047119255171686</v>
+        <v>0.3790374862575097</v>
       </c>
     </row>
     <row r="25">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>5966</v>
+        <v>5182</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1151575822329383</v>
@@ -2235,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3684245314040017</v>
+        <v>0.3200651963845517</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -2244,19 +2244,19 @@
         <v>3186</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1027</v>
+        <v>1017</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>8387</v>
+        <v>8390</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1136277626432778</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03663272473184291</v>
+        <v>0.03626121354693834</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2990943188423096</v>
+        <v>0.299196060095924</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -2265,19 +2265,19 @@
         <v>5051</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1858</v>
+        <v>1868</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10426</v>
+        <v>10162</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1141877642916395</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04200176323218514</v>
+        <v>0.04222239905148591</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2357039103262959</v>
+        <v>0.2297327882302453</v>
       </c>
     </row>
     <row r="26">
@@ -2294,19 +2294,19 @@
         <v>8153</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3819</v>
+        <v>4379</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>12329</v>
+        <v>12357</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5035353872446612</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2358405501388784</v>
+        <v>0.2704445892003038</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7614020751031125</v>
+        <v>0.7631840760987912</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>16</v>
@@ -2315,19 +2315,19 @@
         <v>17017</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>11860</v>
+        <v>11637</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>22044</v>
+        <v>22201</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6068251733843276</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4229407491793278</v>
+        <v>0.4149732718425514</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7860964368690152</v>
+        <v>0.7917006544158359</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>24</v>
@@ -2336,19 +2336,19 @@
         <v>25170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>17988</v>
+        <v>18704</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>31321</v>
+        <v>31801</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5690151918099786</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4066480845169997</v>
+        <v>0.4228459007586104</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7080787879837258</v>
+        <v>0.7189165660465141</v>
       </c>
     </row>
     <row r="27">
@@ -2378,19 +2378,19 @@
         <v>3158</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8400</v>
+        <v>7429</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1126279632974672</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.03453984270640688</v>
+        <v>0.03472705494161354</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2995666713875861</v>
+        <v>0.2649107132133137</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>3</v>
@@ -2399,19 +2399,19 @@
         <v>3158</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>983</v>
+        <v>970</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7566</v>
+        <v>8716</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.07139967368444114</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02221888349369262</v>
+        <v>0.0219390499320462</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1710413927514215</v>
+        <v>0.1970431113447036</v>
       </c>
     </row>
     <row r="28">
@@ -2432,19 +2432,19 @@
         <v>31630</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22641</v>
+        <v>22508</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>42079</v>
+        <v>40719</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2592208379947278</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1855485883474114</v>
+        <v>0.1844605365484027</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3448511999907901</v>
+        <v>0.3337105281253748</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>16</v>
@@ -2453,19 +2453,19 @@
         <v>15712</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>9469</v>
+        <v>9535</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>24252</v>
+        <v>23456</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1674949376004987</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1009434212621744</v>
+        <v>0.1016480972577548</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2585302242957889</v>
+        <v>0.2500440193789143</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>47</v>
@@ -2474,19 +2474,19 @@
         <v>47342</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>36792</v>
+        <v>36120</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>60340</v>
+        <v>60150</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.219353321684371</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1704721410143716</v>
+        <v>0.1673562603058082</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2795776730773054</v>
+        <v>0.2786996002613907</v>
       </c>
     </row>
     <row r="29">
@@ -2503,19 +2503,19 @@
         <v>16370</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9728</v>
+        <v>10376</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>25197</v>
+        <v>25750</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1341595782654078</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.07972274964551808</v>
+        <v>0.0850365747456563</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2065006682891338</v>
+        <v>0.211033542425256</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>11</v>
@@ -2524,19 +2524,19 @@
         <v>12156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>6299</v>
+        <v>6377</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>19814</v>
+        <v>20748</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1295856803154422</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06715339164223137</v>
+        <v>0.06798481995835218</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2112228102569922</v>
+        <v>0.2211794543443237</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>27</v>
@@ -2545,19 +2545,19 @@
         <v>28526</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>20177</v>
+        <v>19964</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>40266</v>
+        <v>40532</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1321715906813291</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.09349000496762183</v>
+        <v>0.09249906697748701</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1865699668756148</v>
+        <v>0.1877987507617981</v>
       </c>
     </row>
     <row r="30">
@@ -2574,19 +2574,19 @@
         <v>56905</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45948</v>
+        <v>46638</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>68244</v>
+        <v>67948</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4663583240900351</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3765648255649906</v>
+        <v>0.3822121908970534</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.5592828677809857</v>
+        <v>0.5568573578899511</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>58</v>
@@ -2595,19 +2595,19 @@
         <v>60878</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>51383</v>
+        <v>51054</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>69882</v>
+        <v>69735</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6489744523220928</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5477534266758802</v>
+        <v>0.5442485278049736</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7449623015142078</v>
+        <v>0.7433971074985669</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>114</v>
@@ -2616,19 +2616,19 @@
         <v>117782</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>101775</v>
+        <v>102820</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>132044</v>
+        <v>132254</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5457301420774857</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4715632087510057</v>
+        <v>0.4764023634714588</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6118093162306316</v>
+        <v>0.6127831886788645</v>
       </c>
     </row>
     <row r="31">
@@ -2645,19 +2645,19 @@
         <v>17115</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>10146</v>
+        <v>10222</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>26915</v>
+        <v>27524</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1402612596498292</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.08314802623420943</v>
+        <v>0.08377494149985237</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2205748152153957</v>
+        <v>0.22556778588535</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>5</v>
@@ -2666,19 +2666,19 @@
         <v>5060</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1914</v>
+        <v>1847</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>11465</v>
+        <v>10958</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.05394492976196631</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.02040711089419837</v>
+        <v>0.01968920605883851</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.122219228497166</v>
+        <v>0.1168116804212149</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2687,19 +2687,19 @@
         <v>22175</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>14341</v>
+        <v>13463</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>34424</v>
+        <v>33071</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1027449455568141</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.06644713444511034</v>
+        <v>0.06238033036612999</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1595006391704969</v>
+        <v>0.1532305377159466</v>
       </c>
     </row>
     <row r="32">
@@ -2962,19 +2962,19 @@
         <v>10984</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5917</v>
+        <v>5487</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17811</v>
+        <v>17808</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3234112349465948</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1742374676520483</v>
+        <v>0.1615692974255818</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5244472071882005</v>
+        <v>0.5243534710057972</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5789</v>
+        <v>5152</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05672941731438427</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3340668263761924</v>
+        <v>0.2972983325925346</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>11</v>
@@ -3004,19 +3004,19 @@
         <v>11967</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6504</v>
+        <v>6645</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19034</v>
+        <v>20474</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2333095735192768</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1268037239623289</v>
+        <v>0.129549284632729</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3710910705898796</v>
+        <v>0.3991641829294624</v>
       </c>
     </row>
     <row r="5">
@@ -3033,19 +3033,19 @@
         <v>3693</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>927</v>
+        <v>907</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10529</v>
+        <v>11134</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1087420207837054</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02729444395690621</v>
+        <v>0.02669181045541025</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3100306819000884</v>
+        <v>0.3278230274523797</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -3057,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5468</v>
+        <v>6355</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1085111530197082</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3155590313984145</v>
+        <v>0.3667405683037141</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3075,19 +3075,19 @@
         <v>5573</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1900</v>
+        <v>1796</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13306</v>
+        <v>11653</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1086640193312973</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03704041789477679</v>
+        <v>0.03502015378332287</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2594145328803006</v>
+        <v>0.2272007602017485</v>
       </c>
     </row>
     <row r="6">
@@ -3104,19 +3104,19 @@
         <v>19285</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12753</v>
+        <v>12607</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>25558</v>
+        <v>25831</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5678467442696997</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3755056332671171</v>
+        <v>0.3712046588938718</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7525516004108265</v>
+        <v>0.7605844018530639</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -3125,19 +3125,19 @@
         <v>14466</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>10509</v>
+        <v>9739</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>16535</v>
+        <v>16511</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.8347594296659075</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.6064421424636269</v>
+        <v>0.5620138885502641</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.954199488516654</v>
+        <v>0.9527818541417733</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>27</v>
@@ -3146,19 +3146,19 @@
         <v>33751</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>25524</v>
+        <v>25230</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>40507</v>
+        <v>40161</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.658026407149426</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4976243248721159</v>
+        <v>0.4918953580622061</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7897536842689438</v>
+        <v>0.7829935424384823</v>
       </c>
     </row>
     <row r="7">
@@ -3226,19 +3226,19 @@
         <v>8590</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3853</v>
+        <v>3883</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14252</v>
+        <v>14654</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2647587185111267</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1187635346331239</v>
+        <v>0.1196691445816154</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4392474915100262</v>
+        <v>0.4516514061640261</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3247,19 +3247,19 @@
         <v>6779</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3016</v>
+        <v>2951</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>13176</v>
+        <v>12482</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2524203437138655</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1123180365284164</v>
+        <v>0.1098795836231437</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4906237629552129</v>
+        <v>0.4647954908489659</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>14</v>
@@ -3268,19 +3268,19 @@
         <v>15369</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8796</v>
+        <v>8898</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>23354</v>
+        <v>24143</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2591711592244897</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.148323975534026</v>
+        <v>0.1500382410942257</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.393811972979182</v>
+        <v>0.4071139222413681</v>
       </c>
     </row>
     <row r="9">
@@ -3297,19 +3297,19 @@
         <v>4908</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1790</v>
+        <v>1719</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>9958</v>
+        <v>9313</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1512680180796288</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05516438778535186</v>
+        <v>0.0529865203422662</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3069030839181435</v>
+        <v>0.2870416659067047</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -3321,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8933</v>
+        <v>8485</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1073388853656225</v>
@@ -3330,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3326242052370906</v>
+        <v>0.3159612234295971</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>7</v>
@@ -3339,19 +3339,19 @@
         <v>7791</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2981</v>
+        <v>3581</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14389</v>
+        <v>14581</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1313742607993314</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.05026212540883108</v>
+        <v>0.06038736310598959</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2426363921612108</v>
+        <v>0.2458846363765422</v>
       </c>
     </row>
     <row r="10">
@@ -3368,19 +3368,19 @@
         <v>18037</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12106</v>
+        <v>12633</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>23618</v>
+        <v>23768</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5558953683141663</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3731041294793149</v>
+        <v>0.3893671685050751</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.727905549148784</v>
+        <v>0.7325275529483596</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>14</v>
@@ -3389,19 +3389,19 @@
         <v>15034</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>9277</v>
+        <v>9816</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20381</v>
+        <v>20142</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5598095357494234</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3454622155006982</v>
+        <v>0.3655226421110409</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7589232214634765</v>
+        <v>0.7500416865603272</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -3410,19 +3410,19 @@
         <v>33071</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25313</v>
+        <v>24205</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>40580</v>
+        <v>40686</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5576679390912493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4268564890598398</v>
+        <v>0.4081588734139777</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6843011776513765</v>
+        <v>0.6860737166394316</v>
       </c>
     </row>
     <row r="11">
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4664</v>
+        <v>4689</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02807789509507812</v>
@@ -3451,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1437534965592935</v>
+        <v>0.1445094900606688</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6613</v>
+        <v>6597</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08043123517108869</v>
@@ -3472,7 +3472,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2462529139316471</v>
+        <v>0.2456350036821832</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>3</v>
@@ -3481,19 +3481,19 @@
         <v>3071</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>907</v>
+        <v>914</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>7936</v>
+        <v>7503</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0517866408849296</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0152862777823424</v>
+        <v>0.01541773999292355</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1338225629669752</v>
+        <v>0.1265185285549936</v>
       </c>
     </row>
     <row r="12">
@@ -3514,19 +3514,19 @@
         <v>11347</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6089</v>
+        <v>6288</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18129</v>
+        <v>17727</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2003451059974417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.107499063259247</v>
+        <v>0.1110177031922268</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3200756534460792</v>
+        <v>0.3129810901988715</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -3538,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5848</v>
+        <v>5813</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.135151194063219</v>
@@ -3547,7 +3547,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4176922208927223</v>
+        <v>0.4152245394959219</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>14</v>
@@ -3556,19 +3556,19 @@
         <v>13239</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7508</v>
+        <v>7843</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20581</v>
+        <v>20330</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1874244531694459</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1062846191486416</v>
+        <v>0.1110236244725153</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2913511699342969</v>
+        <v>0.2878057951755166</v>
       </c>
     </row>
     <row r="13">
@@ -3585,19 +3585,19 @@
         <v>3171</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9177</v>
+        <v>8818</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05597734316566659</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01676166905942982</v>
+        <v>0.01672549286043768</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1620252989665877</v>
+        <v>0.1556935759509964</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>3</v>
@@ -3606,19 +3606,19 @@
         <v>3074</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>142</v>
+        <v>885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6870</v>
+        <v>7094</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2195676628267233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01016631303332365</v>
+        <v>0.06318241401049085</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4906925758365041</v>
+        <v>0.5067164441138631</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>6</v>
@@ -3627,19 +3627,19 @@
         <v>6244</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>2185</v>
+        <v>2253</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12503</v>
+        <v>12788</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08839898597940012</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0309338490029124</v>
+        <v>0.03189130513878921</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1770033772998755</v>
+        <v>0.1810380001865688</v>
       </c>
     </row>
     <row r="14">
@@ -3656,19 +3656,19 @@
         <v>35484</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>26544</v>
+        <v>28301</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>42246</v>
+        <v>42666</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6264889462514018</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4686571932679476</v>
+        <v>0.4996771769657244</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7458839362507936</v>
+        <v>0.7532985917987258</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3677,19 +3677,19 @@
         <v>5985</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2271</v>
+        <v>2338</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>10281</v>
+        <v>10414</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4275311041339759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1622465631749324</v>
+        <v>0.167010093094922</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7343594160206054</v>
+        <v>0.7438759771601263</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>36</v>
@@ -3698,19 +3698,19 @@
         <v>41469</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32476</v>
+        <v>32334</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>50529</v>
+        <v>50512</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5870578839153953</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4597436547352714</v>
+        <v>0.4577320331741336</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7153093859235596</v>
+        <v>0.715070859553476</v>
       </c>
     </row>
     <row r="15">
@@ -3727,19 +3727,19 @@
         <v>6637</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2924</v>
+        <v>2355</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>13525</v>
+        <v>12904</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1171886045854899</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.05163272808330307</v>
+        <v>0.04157618916795253</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2387893602969905</v>
+        <v>0.2278297140919712</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>3049</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>577</v>
+        <v>927</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6792</v>
+        <v>6573</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.2177500389760818</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.04119763027379879</v>
+        <v>0.06619664234378622</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4851768769622524</v>
+        <v>0.4695039236890581</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>9</v>
@@ -3769,19 +3769,19 @@
         <v>9686</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>4626</v>
+        <v>4635</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16779</v>
+        <v>17159</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1371186769357587</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.06548453132311387</v>
+        <v>0.06561168516394246</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2375283689985701</v>
+        <v>0.2429141160515466</v>
       </c>
     </row>
     <row r="16">
@@ -3802,19 +3802,19 @@
         <v>28864</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20801</v>
+        <v>20704</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>39526</v>
+        <v>38188</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3018578345791625</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2175405294730341</v>
+        <v>0.2165217975387631</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4133685037481165</v>
+        <v>0.399375814027897</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>10</v>
@@ -3823,19 +3823,19 @@
         <v>11183</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5974</v>
+        <v>6064</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18035</v>
+        <v>18182</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2297341408271401</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1227290807364063</v>
+        <v>0.1245671912787694</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3704920342288098</v>
+        <v>0.3735128488692903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -3844,19 +3844,19 @@
         <v>40047</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>30231</v>
+        <v>29181</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>51557</v>
+        <v>51040</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2775268701458127</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.209500185883984</v>
+        <v>0.2022245179734234</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3572942499054804</v>
+        <v>0.3537077148084464</v>
       </c>
     </row>
     <row r="17">
@@ -3876,16 +3876,16 @@
         <v>994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>8954</v>
+        <v>9860</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04169075806656334</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.01039227980968877</v>
+        <v>0.01039443731027072</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09364023308594642</v>
+        <v>0.1031207272617223</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>6</v>
@@ -3894,19 +3894,19 @@
         <v>6028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2865</v>
+        <v>2041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11833</v>
+        <v>11378</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1238343433901937</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05886431263420717</v>
+        <v>0.04192167273251503</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2430737139627626</v>
+        <v>0.2337266558448623</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -3915,19 +3915,19 @@
         <v>10015</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5076</v>
+        <v>5129</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>17357</v>
+        <v>17713</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06940193797103184</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03518019863366682</v>
+        <v>0.03554674452601384</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.120284155135206</v>
+        <v>0.1227529727831258</v>
       </c>
     </row>
     <row r="18">
@@ -3944,19 +3944,19 @@
         <v>55154</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>45684</v>
+        <v>46070</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>64423</v>
+        <v>64675</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5768013258024588</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.477770027208334</v>
+        <v>0.4818013383305377</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6737434513235911</v>
+        <v>0.6763701129104056</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -3965,19 +3965,19 @@
         <v>29491</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>22207</v>
+        <v>22277</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>35645</v>
+        <v>36131</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6058171461340598</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4562021419069294</v>
+        <v>0.4576227869035953</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7322404207239261</v>
+        <v>0.7422353887638962</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>84</v>
@@ -3986,19 +3986,19 @@
         <v>84644</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>73548</v>
+        <v>72595</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>95445</v>
+        <v>96159</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5865898274135934</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5096890804415611</v>
+        <v>0.503089315565165</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6614391257081834</v>
+        <v>0.6663875255209172</v>
       </c>
     </row>
     <row r="19">
@@ -4015,19 +4015,19 @@
         <v>7616</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3647</v>
+        <v>3254</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14243</v>
+        <v>14452</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.0796500815518153</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03813585741515489</v>
+        <v>0.03403362128020661</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1489533806873703</v>
+        <v>0.151141562193739</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4039,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5955</v>
+        <v>6080</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04061436964860649</v>
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1223247368586461</v>
+        <v>0.1248973981540337</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -4057,19 +4057,19 @@
         <v>9593</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4689</v>
+        <v>4661</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>16012</v>
+        <v>16693</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06648136446956202</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03249358150874757</v>
+        <v>0.0323011124003193</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1109656282852095</v>
+        <v>0.1156857439072962</v>
       </c>
     </row>
     <row r="20">
@@ -4090,19 +4090,19 @@
         <v>5926</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2038</v>
+        <v>2115</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>11127</v>
+        <v>11654</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1548157986219801</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05323616021785771</v>
+        <v>0.0552621670694356</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2906896507963982</v>
+        <v>0.3044674623454444</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>15</v>
@@ -4111,19 +4111,19 @@
         <v>15826</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>9619</v>
+        <v>9591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>23180</v>
+        <v>23335</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2718038080652068</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.165203250066525</v>
+        <v>0.1647168303219316</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.398099618752131</v>
+        <v>0.4007674937699339</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -4132,19 +4132,19 @@
         <v>21752</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>14274</v>
+        <v>13509</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>30915</v>
+        <v>30682</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2254014891650201</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1479168393168765</v>
+        <v>0.1399860279477519</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.320347752515162</v>
+        <v>0.3179369934631238</v>
       </c>
     </row>
     <row r="21">
@@ -4161,19 +4161,19 @@
         <v>3686</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1038</v>
+        <v>1018</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>9432</v>
+        <v>8986</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.09629470905294484</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0271134025863117</v>
+        <v>0.02660856441901436</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2464125780890125</v>
+        <v>0.2347636246023778</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>5</v>
@@ -4182,19 +4182,19 @@
         <v>5014</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1979</v>
+        <v>1949</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>11217</v>
+        <v>10580</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08612030249696183</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03398384869345396</v>
+        <v>0.03346516202250638</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1926476825651912</v>
+        <v>0.1816988514967666</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>8</v>
@@ -4203,19 +4203,19 @@
         <v>8700</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>4283</v>
+        <v>4219</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>16501</v>
+        <v>16114</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.09015589605802662</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04438513647387046</v>
+        <v>0.04372276228982429</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1709905356843681</v>
+        <v>0.1669763074433223</v>
       </c>
     </row>
     <row r="22">
@@ -4232,19 +4232,19 @@
         <v>21563</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15258</v>
+        <v>15138</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>27753</v>
+        <v>27797</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5633536968702633</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3986284095148863</v>
+        <v>0.3954858129042684</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7250444190082114</v>
+        <v>0.7262008698602109</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>29</v>
@@ -4253,19 +4253,19 @@
         <v>30663</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23570</v>
+        <v>23178</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>38395</v>
+        <v>38107</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5266156765018615</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4047954950593825</v>
+        <v>0.3980732305980392</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6594214726596597</v>
+        <v>0.6544728566923451</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>50</v>
@@ -4274,19 +4274,19 @@
         <v>52226</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>42511</v>
+        <v>42169</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>61059</v>
+        <v>62331</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.541187506085161</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.440519596129485</v>
+        <v>0.4369754347816068</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.632715524617385</v>
+        <v>0.6458927057524019</v>
       </c>
     </row>
     <row r="23">
@@ -4303,19 +4303,19 @@
         <v>7102</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2787</v>
+        <v>2795</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>13337</v>
+        <v>13444</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1855357954548118</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07281507547702666</v>
+        <v>0.07300998809961835</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3484286077364934</v>
+        <v>0.351218969121094</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -4324,19 +4324,19 @@
         <v>6723</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2216</v>
+        <v>2994</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13102</v>
+        <v>13621</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1154602129359699</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03806436127309661</v>
+        <v>0.0514124539930074</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2250188641444332</v>
+        <v>0.233929227722873</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>12</v>
@@ -4345,19 +4345,19 @@
         <v>13825</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7528</v>
+        <v>7550</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>22140</v>
+        <v>22366</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1432551086917923</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07800415209708725</v>
+        <v>0.07823463040855401</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2294180988582215</v>
+        <v>0.231767926729947</v>
       </c>
     </row>
     <row r="24">
@@ -4378,19 +4378,19 @@
         <v>5600</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1983</v>
+        <v>1992</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>10468</v>
+        <v>10670</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2087768333595407</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.07393593415821603</v>
+        <v>0.07427699654271254</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3902485820802495</v>
+        <v>0.3977564807629397</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>33</v>
@@ -4399,19 +4399,19 @@
         <v>34983</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>26708</v>
+        <v>26305</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44632</v>
+        <v>44398</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3919434272953937</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.299233210932862</v>
+        <v>0.2947213582510447</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5000544260388182</v>
+        <v>0.4974310233312001</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>39</v>
@@ -4420,19 +4420,19 @@
         <v>40583</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>30027</v>
+        <v>31367</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>51567</v>
+        <v>51458</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3496143938890958</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2586775536776079</v>
+        <v>0.2702217744975488</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4442385137037559</v>
+        <v>0.4433041279511626</v>
       </c>
     </row>
     <row r="25">
@@ -4449,19 +4449,19 @@
         <v>3736</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>947</v>
+        <v>932</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>8457</v>
+        <v>8404</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1392722863494317</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03531776022879941</v>
+        <v>0.03476153265277678</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3152591705321692</v>
+        <v>0.3132821402473281</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>3</v>
@@ -4470,19 +4470,19 @@
         <v>2961</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>0</v>
+        <v>935</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>7885</v>
+        <v>7766</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.03317281431592471</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0</v>
+        <v>0.01047113842793407</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.08834467937013099</v>
+        <v>0.08701069104960001</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7</v>
@@ -4491,19 +4491,19 @@
         <v>6697</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2864</v>
+        <v>2876</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>13457</v>
+        <v>13519</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05769195833445527</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02467369693393838</v>
+        <v>0.0247794040810815</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1159279444518942</v>
+        <v>0.1164595684751009</v>
       </c>
     </row>
     <row r="26">
@@ -4520,19 +4520,19 @@
         <v>16507</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>11584</v>
+        <v>10916</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21121</v>
+        <v>21112</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6153694923378894</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4318235231691704</v>
+        <v>0.4069231143874701</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7873809676046212</v>
+        <v>0.7870304578724636</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>43</v>
@@ -4541,19 +4541,19 @@
         <v>44911</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36172</v>
+        <v>35253</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>54716</v>
+        <v>54057</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.503179809573942</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4052702031191567</v>
+        <v>0.3949716882945316</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6130322342755873</v>
+        <v>0.6056542415171502</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>60</v>
@@ -4562,19 +4562,19 @@
         <v>61418</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50775</v>
+        <v>50323</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>72111</v>
+        <v>71612</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5291063758080677</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4374183709523337</v>
+        <v>0.43351961639808</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6212252147443972</v>
+        <v>0.6169287684758685</v>
       </c>
     </row>
     <row r="27">
@@ -4594,7 +4594,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4934</v>
+        <v>4895</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03658138795313818</v>
@@ -4603,7 +4603,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1839195697127618</v>
+        <v>0.1824671615881412</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -4612,19 +4612,19 @@
         <v>6400</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2242</v>
+        <v>2244</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>12356</v>
+        <v>12744</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.07170394881473957</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.02511512124813985</v>
+        <v>0.02513704167994993</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1384333023409391</v>
+        <v>0.1427877146228612</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -4633,19 +4633,19 @@
         <v>7381</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3112</v>
+        <v>3057</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>14033</v>
+        <v>13715</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.06358727196838125</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.02681154526969857</v>
+        <v>0.02633849043353725</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.120894368931106</v>
+        <v>0.1181510445566012</v>
       </c>
     </row>
     <row r="28">
@@ -4666,19 +4666,19 @@
         <v>71311</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>56767</v>
+        <v>56706</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86055</v>
+        <v>86348</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2513005880605759</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2000465606724085</v>
+        <v>0.1998332905392889</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3032568639912713</v>
+        <v>0.3042914733765441</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>67</v>
@@ -4687,19 +4687,19 @@
         <v>71646</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>57322</v>
+        <v>57762</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>87312</v>
+        <v>87765</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2816889685887476</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2253725933352568</v>
+        <v>0.2271018087347884</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.3432818640050471</v>
+        <v>0.3450642188261306</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>138</v>
@@ -4708,19 +4708,19 @@
         <v>142957</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>124723</v>
+        <v>122433</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>165855</v>
+        <v>164504</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2656639118562051</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2317792469731457</v>
+        <v>0.2275236974518594</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3082158731202521</v>
+        <v>0.3057050302085133</v>
       </c>
     </row>
     <row r="29">
@@ -4737,19 +4737,19 @@
         <v>23180</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>15454</v>
+        <v>14492</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>34375</v>
+        <v>34646</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08168624819199093</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05446086970180992</v>
+        <v>0.05107066334351698</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.121138025179667</v>
+        <v>0.1220921038702031</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>21</v>
@@ -4758,19 +4758,19 @@
         <v>21840</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>13703</v>
+        <v>14081</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>31708</v>
+        <v>31866</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08586949544261159</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.05387478186468465</v>
+        <v>0.05536053730064572</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1246655032603055</v>
+        <v>0.1252882270091185</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>43</v>
@@ -4779,19 +4779,19 @@
         <v>45020</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33395</v>
+        <v>33002</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>60312</v>
+        <v>59837</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.08366349520988113</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.06205947829665855</v>
+        <v>0.06132875013888575</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1120813445937581</v>
+        <v>0.1111973706930812</v>
       </c>
     </row>
     <row r="30">
@@ -4808,19 +4808,19 @@
         <v>166030</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>147922</v>
+        <v>148648</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>182601</v>
+        <v>183205</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5850886352451744</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5212754344707771</v>
+        <v>0.523833856203814</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6434830684548101</v>
+        <v>0.6456117542444992</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>131</v>
@@ -4829,19 +4829,19 @@
         <v>140550</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>124955</v>
+        <v>125532</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>156571</v>
+        <v>156597</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5525961285964219</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4912829525620363</v>
+        <v>0.4935502705324988</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.6155883024107116</v>
+        <v>0.6156886981798232</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>289</v>
@@ -4850,19 +4850,19 @@
         <v>306580</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>282790</v>
+        <v>282110</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>330119</v>
+        <v>329704</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.5697307785309935</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5255218581946692</v>
+        <v>0.5242585808434899</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6134758129920901</v>
+        <v>0.6127045430043535</v>
       </c>
     </row>
     <row r="31">
@@ -4879,19 +4879,19 @@
         <v>23248</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>15216</v>
+        <v>15289</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>34109</v>
+        <v>34022</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.08192452850225881</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.05362065584479793</v>
+        <v>0.05387923259038953</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1201999321074332</v>
+        <v>0.1198929040208837</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>19</v>
@@ -4900,19 +4900,19 @@
         <v>20308</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>11957</v>
+        <v>12765</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>29715</v>
+        <v>29975</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.07984540737221883</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.04701171180665895</v>
+        <v>0.05018772134421914</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1168307868652389</v>
+        <v>0.1178503247475314</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>41</v>
@@ -4921,19 +4921,19 @@
         <v>43556</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31220</v>
+        <v>32123</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>56848</v>
+        <v>57745</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0809418144029203</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.05801759224057974</v>
+        <v>0.05969507980994264</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1056439536739801</v>
+        <v>0.1073111036069275</v>
       </c>
     </row>
     <row r="32">
@@ -5196,19 +5196,19 @@
         <v>2964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>782</v>
+        <v>822</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7876</v>
+        <v>7751</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1376216891924533</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03630820107637613</v>
+        <v>0.0381465362953959</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3656910491385916</v>
+        <v>0.359921590204807</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -5230,19 +5230,19 @@
         <v>2964</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>8791</v>
+        <v>7871</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0712339146450042</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01899954507705162</v>
+        <v>0.01863085604399983</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2112937539070527</v>
+        <v>0.1891675998323667</v>
       </c>
     </row>
     <row r="5">
@@ -5259,19 +5259,19 @@
         <v>3734</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7982</v>
+        <v>8850</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1734002669858264</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04349758242629945</v>
+        <v>0.043813523825585</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3706510615282975</v>
+        <v>0.4109591717189426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -5283,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5813</v>
+        <v>5734</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.09546069359481285</v>
@@ -5292,7 +5292,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2896579812324566</v>
+        <v>0.2856814161630286</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -5301,19 +5301,19 @@
         <v>5650</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1901</v>
+        <v>2228</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10778</v>
+        <v>10755</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1358027425187985</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04568595354751075</v>
+        <v>0.05355539095610574</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2590505626382616</v>
+        <v>0.2585075878990255</v>
       </c>
     </row>
     <row r="6">
@@ -5330,19 +5330,19 @@
         <v>10542</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5869</v>
+        <v>5600</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15440</v>
+        <v>15249</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4895268806132815</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2725202859899649</v>
+        <v>0.2600106527731869</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.716916291952311</v>
+        <v>0.7080605124203316</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -5351,19 +5351,19 @@
         <v>13610</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9126</v>
+        <v>8823</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17360</v>
+        <v>17158</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.6781472070351572</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4547005259165731</v>
+        <v>0.4396333623328781</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.8649608841549806</v>
+        <v>0.8548838009299882</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -5372,19 +5372,19 @@
         <v>24153</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17906</v>
+        <v>17329</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>30907</v>
+        <v>30756</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5805160537519034</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4303755045149243</v>
+        <v>0.4164974057344342</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.7428589947879033</v>
+        <v>0.7392302434728129</v>
       </c>
     </row>
     <row r="7">
@@ -5401,19 +5401,19 @@
         <v>4295</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>1081</v>
+        <v>1115</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>9895</v>
+        <v>10502</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1994511632084388</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.05020119818162969</v>
+        <v>0.05178537199731947</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4594782631783323</v>
+        <v>0.4876458111718034</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -5422,19 +5422,19 @@
         <v>4544</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1201</v>
+        <v>1157</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>9051</v>
+        <v>10073</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.22639209937003</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05984775766928783</v>
+        <v>0.05763881627898692</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4509701032435861</v>
+        <v>0.5019026970615058</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -5443,19 +5443,19 @@
         <v>8839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3489</v>
+        <v>3641</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15535</v>
+        <v>15290</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2124472890842939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.08385191862403682</v>
+        <v>0.08751451051548782</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3733729225432854</v>
+        <v>0.3674863907702176</v>
       </c>
     </row>
     <row r="8">
@@ -5479,7 +5479,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4206</v>
+        <v>5136</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0604300314099977</v>
@@ -5488,7 +5488,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2494414510019314</v>
+        <v>0.3046053751494819</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -5497,19 +5497,19 @@
         <v>3754</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>9079</v>
+        <v>9563</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1699517691494529</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04308273319377356</v>
+        <v>0.04355834642161732</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4110868409253682</v>
+        <v>0.4329811352853825</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -5518,19 +5518,19 @@
         <v>4772</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1562</v>
+        <v>1122</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>10628</v>
+        <v>11081</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.122539636477672</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.04011054649601413</v>
+        <v>0.02880036782328152</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2728919250014885</v>
+        <v>0.2845220689231774</v>
       </c>
     </row>
     <row r="9">
@@ -5547,19 +5547,19 @@
         <v>2864</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6894</v>
+        <v>7741</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1698830563690066</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.05392138814437825</v>
+        <v>0.05485647481934564</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.4088909232402503</v>
+        <v>0.45912420921581</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5571,7 +5571,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>5175</v>
+        <v>5482</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.04420744426566674</v>
@@ -5580,7 +5580,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2343210319544939</v>
+        <v>0.2482048331846022</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -5589,19 +5589,19 @@
         <v>3841</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8538</v>
+        <v>8832</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.09861261457830191</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02467400478181467</v>
+        <v>0.02440516832024493</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2192155165565895</v>
+        <v>0.2267633471147356</v>
       </c>
     </row>
     <row r="10">
@@ -5621,16 +5621,16 @@
         <v>6188</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14030</v>
+        <v>14108</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6535283030998892</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3670193465090076</v>
+        <v>0.3670101137179937</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8321194770464381</v>
+        <v>0.8367997239953789</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>15</v>
@@ -5639,19 +5639,19 @@
         <v>17356</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12391</v>
+        <v>11513</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>20991</v>
+        <v>20964</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7858407865848803</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.5610265375199165</v>
+        <v>0.5212925963987359</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9504330342402793</v>
+        <v>0.9492024770026903</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -5660,19 +5660,19 @@
         <v>28375</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>21102</v>
+        <v>20984</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33368</v>
+        <v>33144</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7285625042036532</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.5418224764299727</v>
+        <v>0.5387950208364986</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8567639194539134</v>
+        <v>0.8510241304043316</v>
       </c>
     </row>
     <row r="11">
@@ -5692,7 +5692,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>5840</v>
+        <v>6010</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1161586091211065</v>
@@ -5701,7 +5701,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3463650269651289</v>
+        <v>0.3564562725559315</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>0</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>6232</v>
+        <v>6281</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05028524474037292</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1600194708496004</v>
+        <v>0.1612836693680467</v>
       </c>
     </row>
     <row r="12">
@@ -5756,19 +5756,19 @@
         <v>5079</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1910</v>
+        <v>1912</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10052</v>
+        <v>9585</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1634903819049693</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.06149023934633892</v>
+        <v>0.06155479801236108</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3235569591972187</v>
+        <v>0.3085140923482693</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2</v>
@@ -5780,7 +5780,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5493</v>
+        <v>5575</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2472726387287937</v>
@@ -5789,7 +5789,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.624291720376672</v>
+        <v>0.6336527170786976</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -5798,19 +5798,19 @@
         <v>7255</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3260</v>
+        <v>3147</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13422</v>
+        <v>13347</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1819809855993247</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08178626718077338</v>
+        <v>0.07893944407167935</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3366842459422158</v>
+        <v>0.3347944447750392</v>
       </c>
     </row>
     <row r="13">
@@ -5827,19 +5827,19 @@
         <v>5090</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1829</v>
+        <v>1938</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10152</v>
+        <v>11391</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1638347693764048</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05887134949146033</v>
+        <v>0.06239592072405597</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3267687098017399</v>
+        <v>0.3666570868279435</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -5851,7 +5851,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5553</v>
+        <v>5590</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2453505340813673</v>
@@ -5860,7 +5860,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6311738791619101</v>
+        <v>0.635386386104461</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -5869,19 +5869,19 @@
         <v>7248</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3187</v>
+        <v>3030</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>12702</v>
+        <v>13522</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1818251620578916</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07995424368905779</v>
+        <v>0.07601194236544327</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.318629143886362</v>
+        <v>0.3392017483632589</v>
       </c>
     </row>
     <row r="14">
@@ -5898,19 +5898,19 @@
         <v>16162</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>10999</v>
+        <v>11088</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>21891</v>
+        <v>22171</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5202236928207172</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3540455848889267</v>
+        <v>0.356913879987146</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7046539719731175</v>
+        <v>0.7136473720829252</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>4</v>
@@ -5919,19 +5919,19 @@
         <v>4464</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1280</v>
+        <v>1128</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7708</v>
+        <v>7715</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.507376827189839</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1455085521947735</v>
+        <v>0.1281750069661589</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8760845562389987</v>
+        <v>0.8768890296577965</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>19</v>
@@ -5940,19 +5940,19 @@
         <v>20626</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>14148</v>
+        <v>14249</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>26759</v>
+        <v>26866</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5173884111023611</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3548860558038617</v>
+        <v>0.3574294618164502</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6712503286916329</v>
+        <v>0.6739212310252002</v>
       </c>
     </row>
     <row r="15">
@@ -5969,19 +5969,19 @@
         <v>5520</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>1980</v>
+        <v>2453</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10730</v>
+        <v>10703</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1776651851623665</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.06373941070720526</v>
+        <v>0.07894465232719923</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3453950293772204</v>
+        <v>0.3445199392312209</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -6003,19 +6003,19 @@
         <v>5519</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1958</v>
+        <v>2560</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>11142</v>
+        <v>10332</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1384547764951769</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.04911836688981034</v>
+        <v>0.0642086934126687</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2794928702864529</v>
+        <v>0.2591721815362878</v>
       </c>
     </row>
     <row r="16">
@@ -6036,19 +6036,19 @@
         <v>5023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1888</v>
+        <v>1892</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>10668</v>
+        <v>11220</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.08514185072205938</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03201044209835235</v>
+        <v>0.0320792113528123</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1808305802052083</v>
+        <v>0.1901945490234851</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>8</v>
@@ -6057,19 +6057,19 @@
         <v>8206</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3978</v>
+        <v>3828</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13951</v>
+        <v>14531</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.21333382019654</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1034112425317543</v>
+        <v>0.09951932326828304</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3626901086820331</v>
+        <v>0.3777693271322586</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -6078,19 +6078,19 @@
         <v>13229</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>7213</v>
+        <v>7034</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20865</v>
+        <v>20452</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.135737355317454</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07401394688536127</v>
+        <v>0.07217432582973027</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2140952917827712</v>
+        <v>0.2098520369392795</v>
       </c>
     </row>
     <row r="17">
@@ -6107,19 +6107,19 @@
         <v>8339</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3961</v>
+        <v>4393</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15031</v>
+        <v>14995</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1413573166736823</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06714861005191315</v>
+        <v>0.07447541438002261</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2548019898039231</v>
+        <v>0.2541906727120701</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -6141,19 +6141,19 @@
         <v>8339</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3788</v>
+        <v>3963</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>14220</v>
+        <v>15634</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08556564115238749</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0388731750035976</v>
+        <v>0.04066681675411592</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1459121333344818</v>
+        <v>0.1604221646166383</v>
       </c>
     </row>
     <row r="18">
@@ -6170,19 +6170,19 @@
         <v>40845</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32880</v>
+        <v>33366</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>48050</v>
+        <v>47169</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.692376344749974</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5573599226601469</v>
+        <v>0.5656102116653982</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.8145234165959849</v>
+        <v>0.7995759398553971</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -6191,19 +6191,19 @@
         <v>24016</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>17621</v>
+        <v>17848</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>29571</v>
+        <v>29702</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6243572998268455</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4581150917960924</v>
+        <v>0.4640181438335194</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7687740530192502</v>
+        <v>0.7721888584969927</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>63</v>
@@ -6212,19 +6212,19 @@
         <v>64861</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>55002</v>
+        <v>55271</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>73623</v>
+        <v>73689</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.6655302176946626</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5643710251108701</v>
+        <v>0.5671338182174597</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.7554443592824974</v>
+        <v>0.7561218745417816</v>
       </c>
     </row>
     <row r="19">
@@ -6241,19 +6241,19 @@
         <v>5651</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2006</v>
+        <v>1951</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12426</v>
+        <v>12149</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.09578955926529677</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03401229381007053</v>
+        <v>0.03307930959019745</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2106405020279745</v>
+        <v>0.2059363070699473</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>5</v>
@@ -6262,19 +6262,19 @@
         <v>6243</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2427</v>
+        <v>1975</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>13204</v>
+        <v>12224</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1623088799766144</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.06310881540225613</v>
+        <v>0.05135079031263715</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3432784198416639</v>
+        <v>0.3177890556370946</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -6283,19 +6283,19 @@
         <v>11894</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>6035</v>
+        <v>6090</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>20487</v>
+        <v>19824</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1220437670017806</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06192950849381876</v>
+        <v>0.06248938255902902</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2102113416241732</v>
+        <v>0.2034107061202147</v>
       </c>
     </row>
     <row r="20">
@@ -6316,19 +6316,19 @@
         <v>10009</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5384</v>
+        <v>5152</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>16817</v>
+        <v>16804</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.240707583533629</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1294651908524126</v>
+        <v>0.1238988493198293</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.404412386289273</v>
+        <v>0.4041063133728514</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -6337,19 +6337,19 @@
         <v>5657</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2161</v>
+        <v>2142</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>11640</v>
+        <v>12307</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1399865206815467</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05347227263575845</v>
+        <v>0.05301655375148584</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2880379545738544</v>
+        <v>0.3045448731137454</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>15</v>
@@ -6358,19 +6358,19 @@
         <v>15666</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>9063</v>
+        <v>8903</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>23898</v>
+        <v>24565</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1910669225926779</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1105360619098798</v>
+        <v>0.1085863703574357</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2914552201924352</v>
+        <v>0.2996006015607544</v>
       </c>
     </row>
     <row r="21">
@@ -6387,19 +6387,19 @@
         <v>5447</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2519</v>
+        <v>2353</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>11243</v>
+        <v>10594</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1310005150369238</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.06058105854035585</v>
+        <v>0.05657689752783242</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.270377773486931</v>
+        <v>0.2547716369581516</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>9</v>
@@ -6408,19 +6408,19 @@
         <v>9150</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>4243</v>
+        <v>4832</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14832</v>
+        <v>15773</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2264209881171424</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1049957856276771</v>
+        <v>0.119580320804578</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3670353207114695</v>
+        <v>0.3903080020704984</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>15</v>
@@ -6429,19 +6429,19 @@
         <v>14597</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>8434</v>
+        <v>8494</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>23313</v>
+        <v>22378</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1780287653042645</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1028563160766755</v>
+        <v>0.1035914183360899</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2843230888490703</v>
+        <v>0.2729273247636563</v>
       </c>
     </row>
     <row r="22">
@@ -6458,19 +6458,19 @@
         <v>23149</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16945</v>
+        <v>15838</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>28794</v>
+        <v>28582</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5567023502697699</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4075050801262638</v>
+        <v>0.3808783576441128</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6924469792861222</v>
+        <v>0.6873456783031093</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -6479,19 +6479,19 @@
         <v>23435</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>17208</v>
+        <v>16633</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29846</v>
+        <v>29386</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5799283348410961</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4258319724977918</v>
+        <v>0.4115908249344937</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7385603747363787</v>
+        <v>0.7271859853636869</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>43</v>
@@ -6500,19 +6500,19 @@
         <v>46585</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>37388</v>
+        <v>36593</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55611</v>
+        <v>55276</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.568149342512278</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4559853196521052</v>
+        <v>0.4462902706964628</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6782368962251263</v>
+        <v>0.6741516925001176</v>
       </c>
     </row>
     <row r="23">
@@ -6529,19 +6529,19 @@
         <v>2977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7904</v>
+        <v>8093</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07158955115967734</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02014178533203196</v>
+        <v>0.019713118430806</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1900735389616089</v>
+        <v>0.1946160681839451</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>3</v>
@@ -6553,16 +6553,16 @@
         <v>1038</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>8506</v>
+        <v>8622</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07895336715552896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02567729405426248</v>
+        <v>0.02568180373689352</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2104808728902098</v>
+        <v>0.2133598116346348</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6</v>
@@ -6571,19 +6571,19 @@
         <v>6167</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2776</v>
+        <v>2185</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>12278</v>
+        <v>12390</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07521882871821996</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.03385254023262683</v>
+        <v>0.02664681685879747</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1497374931722394</v>
+        <v>0.15111446998143</v>
       </c>
     </row>
     <row r="24">
@@ -6604,19 +6604,19 @@
         <v>8294</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3591</v>
+        <v>3765</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>14488</v>
+        <v>14369</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2802487364743381</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1213467679942201</v>
+        <v>0.1272148711914502</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4895374545316575</v>
+        <v>0.4855149842128752</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>7</v>
@@ -6625,19 +6625,19 @@
         <v>7311</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>3434</v>
+        <v>3142</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13738</v>
+        <v>13906</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1209772602206243</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.05681322922525527</v>
+        <v>0.05199501607458822</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2273118244308691</v>
+        <v>0.2300951690595792</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>14</v>
@@ -6646,19 +6646,19 @@
         <v>15605</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8947</v>
+        <v>9499</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>24492</v>
+        <v>24133</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1733342013995599</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.09937202559066252</v>
+        <v>0.1055035470824241</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2720423258415455</v>
+        <v>0.2680521093388173</v>
       </c>
     </row>
     <row r="25">
@@ -6688,19 +6688,19 @@
         <v>5274</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1917</v>
+        <v>1948</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>11810</v>
+        <v>11116</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.08727418054424631</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03171826797271233</v>
+        <v>0.03222575324695342</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1954239409102893</v>
+        <v>0.1839352089525979</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>5</v>
@@ -6709,19 +6709,19 @@
         <v>5274</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1946</v>
+        <v>1967</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10811</v>
+        <v>11228</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05858474258163208</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.02160968041177502</v>
+        <v>0.02184425579200795</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.120079393739236</v>
+        <v>0.1247173044000866</v>
       </c>
     </row>
     <row r="26">
@@ -6738,19 +6738,19 @@
         <v>19338</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>13553</v>
+        <v>13732</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24366</v>
+        <v>24483</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6533877667950563</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4579412590811634</v>
+        <v>0.4639844159948376</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.8232782684755687</v>
+        <v>0.8272265311033428</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>34</v>
@@ -6759,19 +6759,19 @@
         <v>40807</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>33277</v>
+        <v>32527</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>47786</v>
+        <v>48539</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6752187991820041</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5506224265637383</v>
+        <v>0.5382175722702938</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7906997047176146</v>
+        <v>0.8031681267764875</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>52</v>
@@ -6780,19 +6780,19 @@
         <v>60145</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>50337</v>
+        <v>49645</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>68471</v>
+        <v>68033</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6680423347864703</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5591024485270064</v>
+        <v>0.5514228423124834</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7605256413114956</v>
+        <v>0.7556574524971382</v>
       </c>
     </row>
     <row r="27">
@@ -6812,7 +6812,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6739</v>
+        <v>6168</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.06636349673060558</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.2276962163377957</v>
+        <v>0.2083918989133992</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -6830,19 +6830,19 @@
         <v>7042</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2590</v>
+        <v>2920</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>13831</v>
+        <v>14227</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1165297600531253</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0428621245296</v>
+        <v>0.04831516935639501</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2288514856802123</v>
+        <v>0.2354136747378243</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>8</v>
@@ -6851,19 +6851,19 @@
         <v>9007</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>4434</v>
+        <v>4194</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>16432</v>
+        <v>16099</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1000387212323376</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.04924570971185899</v>
+        <v>0.04658879867446526</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1825132482150862</v>
+        <v>0.1788188193626447</v>
       </c>
     </row>
     <row r="28">
@@ -6884,19 +6884,19 @@
         <v>32388</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>23674</v>
+        <v>22466</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44609</v>
+        <v>44023</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1622372349374258</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1185887536949331</v>
+        <v>0.1125356196550872</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2234517197381383</v>
+        <v>0.2205163787498732</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>25</v>
@@ -6905,19 +6905,19 @@
         <v>27103</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>17766</v>
+        <v>18946</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>37592</v>
+        <v>38836</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1424495369794327</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.09337410973040168</v>
+        <v>0.09957699663614289</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1975778706328508</v>
+        <v>0.2041149012183035</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>56</v>
@@ -6926,19 +6926,19 @@
         <v>59491</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>45479</v>
+        <v>45556</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>75988</v>
+        <v>73907</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1525810898873958</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1166424917785176</v>
+        <v>0.1168391849727012</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1948902165250718</v>
+        <v>0.1895526349169909</v>
       </c>
     </row>
     <row r="29">
@@ -6955,19 +6955,19 @@
         <v>25475</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17838</v>
+        <v>17507</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>36053</v>
+        <v>34811</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.127607582443979</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.08935257637601915</v>
+        <v>0.08769774928772353</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1805958467185067</v>
+        <v>0.1743722190095187</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>19</v>
@@ -6976,19 +6976,19 @@
         <v>19475</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12031</v>
+        <v>12006</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>28621</v>
+        <v>29334</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1023582713288297</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.06323448786625396</v>
+        <v>0.06310310647467961</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1504273535815038</v>
+        <v>0.1541711897881559</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>46</v>
@@ -6997,19 +6997,19 @@
         <v>44950</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>33673</v>
+        <v>33702</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>58976</v>
+        <v>59845</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1152862396046655</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.0863640675451105</v>
+        <v>0.08643674821217456</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1512585629214219</v>
+        <v>0.1534884609491254</v>
       </c>
     </row>
     <row r="30">
@@ -7026,19 +7026,19 @@
         <v>121054</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>104670</v>
+        <v>108704</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>134181</v>
+        <v>134173</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.6063818797338738</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.524311462102766</v>
+        <v>0.5445165667130176</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6721329609166048</v>
+        <v>0.6720927707870871</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>110</v>
@@ -7047,19 +7047,19 @@
         <v>123689</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>110833</v>
+        <v>108679</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>137274</v>
+        <v>135984</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.6500861036753899</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.5825148803480666</v>
+        <v>0.5711940730056578</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.7214831630641856</v>
+        <v>0.7147024799837746</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>226</v>
@@ -7068,19 +7068,19 @@
         <v>244744</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>225448</v>
+        <v>224781</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>264251</v>
+        <v>263966</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.6277089854221737</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5782197415127176</v>
+        <v>0.5765086778659047</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6777400866226355</v>
+        <v>0.6770091137982209</v>
       </c>
     </row>
     <row r="31">
@@ -7097,19 +7097,19 @@
         <v>22365</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>14472</v>
+        <v>14190</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>31928</v>
+        <v>33267</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1120307116734854</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.07249023741365046</v>
+        <v>0.07107788922375817</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1599348070090502</v>
+        <v>0.1666397428475671</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>18</v>
@@ -7118,19 +7118,19 @@
         <v>21020</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>12609</v>
+        <v>12369</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>30865</v>
+        <v>30880</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.110477326165809</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.06627189459887682</v>
+        <v>0.06500667462374754</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1622197284071195</v>
+        <v>0.1623006533364053</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>39</v>
@@ -7139,19 +7139,19 @@
         <v>43385</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>31780</v>
+        <v>30952</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>58150</v>
+        <v>57681</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1112726792933379</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.08150899384747058</v>
+        <v>0.07938486709833006</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1491415700738546</v>
+        <v>0.1479370194448698</v>
       </c>
     </row>
     <row r="32">
@@ -7414,19 +7414,19 @@
         <v>5745</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2147</v>
+        <v>2176</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11336</v>
+        <v>11262</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2221122935495065</v>
+        <v>0.2221122935495064</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.08301633996478072</v>
+        <v>0.08412839229940675</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.438232265162839</v>
+        <v>0.4353811219402774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>9</v>
@@ -7435,19 +7435,19 @@
         <v>5102</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2593</v>
+        <v>2549</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9209</v>
+        <v>8485</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.1948261548585573</v>
+        <v>0.1948261548585574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09900584208226622</v>
+        <v>0.09733152086243158</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3516505886257071</v>
+        <v>0.3239982188850429</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -7456,19 +7456,19 @@
         <v>10848</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>6142</v>
+        <v>6212</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17224</v>
+        <v>18112</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2083850134265287</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1179964959691526</v>
+        <v>0.1193260671291308</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3308816390047262</v>
+        <v>0.3479243662734782</v>
       </c>
     </row>
     <row r="5">
@@ -7488,7 +7488,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>4893</v>
+        <v>5408</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04364064128991112</v>
@@ -7497,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1891716586461857</v>
+        <v>0.2090524160703284</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -7506,19 +7506,19 @@
         <v>5417</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2595</v>
+        <v>2312</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9395</v>
+        <v>9304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2068499361149016</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09910043925754622</v>
+        <v>0.08829618549652084</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3587349554549253</v>
+        <v>0.3552706118392754</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>9</v>
@@ -7527,19 +7527,19 @@
         <v>6546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3018</v>
+        <v>3171</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>11499</v>
+        <v>11720</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1257489870002353</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.05797197053165563</v>
+        <v>0.06090963796050593</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2208872932427177</v>
+        <v>0.2251428126090875</v>
       </c>
     </row>
     <row r="6">
@@ -7556,19 +7556,19 @@
         <v>15980</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>10445</v>
+        <v>10624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>20650</v>
+        <v>20862</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6177578858318508</v>
+        <v>0.6177578858318505</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4038028486679166</v>
+        <v>0.4107104148436855</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.7983113291649797</v>
+        <v>0.8065216277201593</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>21</v>
@@ -7577,19 +7577,19 @@
         <v>13154</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9109</v>
+        <v>9090</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>17092</v>
+        <v>17292</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.5023058360010493</v>
+        <v>0.5023058360010494</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3478450757975171</v>
+        <v>0.3470971113644716</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6526778939396736</v>
+        <v>0.660317738053794</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>36</v>
@@ -7598,19 +7598,19 @@
         <v>29134</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>22559</v>
+        <v>21901</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35981</v>
+        <v>35091</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5596755515466743</v>
+        <v>0.5596755515466741</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4333631609515238</v>
+        <v>0.4207129368643864</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.6911993443625601</v>
+        <v>0.6740959862119072</v>
       </c>
     </row>
     <row r="7">
@@ -7627,19 +7627,19 @@
         <v>3013</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>7731</v>
+        <v>7877</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1164891793287318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02232165917515355</v>
+        <v>0.02184583054987169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2988681792536314</v>
+        <v>0.3045329370815423</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>4</v>
@@ -7648,19 +7648,19 @@
         <v>2515</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5723</v>
+        <v>5315</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.09601807302549172</v>
+        <v>0.09601807302549173</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02368158556808237</v>
+        <v>0.02360325245167055</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2185484660855123</v>
+        <v>0.2029378827062228</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -7669,19 +7669,19 @@
         <v>5528</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2381</v>
+        <v>2269</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>11330</v>
+        <v>10873</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.1061904480265618</v>
+        <v>0.1061904480265617</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04574521345915149</v>
+        <v>0.04359096808915156</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2176416003727404</v>
+        <v>0.2088768230389393</v>
       </c>
     </row>
     <row r="8">
@@ -7702,19 +7702,19 @@
         <v>5765</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1787</v>
+        <v>1804</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13397</v>
+        <v>12753</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2240328567202902</v>
+        <v>0.2240328567202901</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.06945013464635444</v>
+        <v>0.07009966595660057</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5206174269059435</v>
+        <v>0.4955936342601955</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -7723,19 +7723,19 @@
         <v>3678</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1440</v>
+        <v>1597</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>7267</v>
+        <v>7650</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1472301551762219</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05762967949864893</v>
+        <v>0.06390406981907487</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2908868252605519</v>
+        <v>0.3061913616039851</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>11</v>
@@ -7744,19 +7744,19 @@
         <v>9443</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5104</v>
+        <v>5010</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17251</v>
+        <v>18643</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1861985617757408</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1006503119635688</v>
+        <v>0.09878425807693725</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3401575540394706</v>
+        <v>0.3676195741189004</v>
       </c>
     </row>
     <row r="9">
@@ -7773,19 +7773,19 @@
         <v>2453</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>594</v>
+        <v>552</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6826</v>
+        <v>6917</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.09531275340231513</v>
+        <v>0.09531275340231511</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02306995642368303</v>
+        <v>0.02145520836350588</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2652564102065536</v>
+        <v>0.268814968505085</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>9</v>
@@ -7794,19 +7794,19 @@
         <v>6340</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2796</v>
+        <v>3118</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10412</v>
+        <v>10947</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.2537531169876039</v>
+        <v>0.2537531169876038</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1119087603571077</v>
+        <v>0.1247971523447183</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4167668795309067</v>
+        <v>0.438176103436045</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>12</v>
@@ -7815,19 +7815,19 @@
         <v>8792</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>4883</v>
+        <v>4782</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>14677</v>
+        <v>14790</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1733631256742842</v>
+        <v>0.1733631256742841</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.09629190218891202</v>
+        <v>0.09430197615135115</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2894049219096366</v>
+        <v>0.2916291021347584</v>
       </c>
     </row>
     <row r="10">
@@ -7844,19 +7844,19 @@
         <v>15149</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8473</v>
+        <v>9455</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20045</v>
+        <v>20160</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.5887126727241963</v>
+        <v>0.5887126727241961</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3292959248904718</v>
+        <v>0.3674491643429034</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.779007854124275</v>
+        <v>0.7834603827962783</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -7865,19 +7865,19 @@
         <v>11727</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7515</v>
+        <v>7945</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>15896</v>
+        <v>16042</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.4693889002619689</v>
+        <v>0.4693889002619688</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3008103810058258</v>
+        <v>0.3179979365569548</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.6362711619832738</v>
+        <v>0.6421155496076963</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -7886,19 +7886,19 @@
         <v>26875</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>19949</v>
+        <v>20013</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>33107</v>
+        <v>33294</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.5299317872804485</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3933632772572824</v>
+        <v>0.3946314378117606</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.6528241767181909</v>
+        <v>0.6565096665984835</v>
       </c>
     </row>
     <row r="11">
@@ -7915,19 +7915,19 @@
         <v>2366</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>6377</v>
+        <v>6314</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.09194171715319854</v>
+        <v>0.09194171715319853</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.02394763390610312</v>
+        <v>0.02440173143521585</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2478314544725513</v>
+        <v>0.2453891790687416</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>5</v>
@@ -7936,19 +7936,19 @@
         <v>3238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1090</v>
+        <v>1219</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6779</v>
+        <v>7174</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1296278275742055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04363550986549182</v>
+        <v>0.04879577494178621</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.271348922758483</v>
+        <v>0.2871635125649319</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>8</v>
@@ -7957,19 +7957,19 @@
         <v>5604</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2577</v>
+        <v>2625</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10233</v>
+        <v>10744</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1105065252695265</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.05081892617424935</v>
+        <v>0.05175163142944376</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2017772361994239</v>
+        <v>0.2118482942223069</v>
       </c>
     </row>
     <row r="12">
@@ -7990,19 +7990,19 @@
         <v>3712</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8360</v>
+        <v>7706</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.0995911757231995</v>
+        <v>0.09959117572319953</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03554495898284644</v>
+        <v>0.03549456045787306</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2242976304027406</v>
+        <v>0.2067458177330321</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>4</v>
@@ -8011,19 +8011,19 @@
         <v>2431</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>673</v>
+        <v>635</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>5229</v>
+        <v>5136</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1916046102640476</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05300487324937158</v>
+        <v>0.05007933414253463</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4121354355082524</v>
+        <v>0.4048064747981795</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>9</v>
@@ -8032,19 +8032,19 @@
         <v>6143</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3059</v>
+        <v>3071</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>11316</v>
+        <v>11546</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.1229601804789174</v>
+        <v>0.1229601804789175</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06122422663723241</v>
+        <v>0.06146055079363606</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2265144294645007</v>
+        <v>0.2311169623661207</v>
       </c>
     </row>
     <row r="13">
@@ -8061,19 +8061,19 @@
         <v>4356</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1600</v>
+        <v>1518</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9386</v>
+        <v>9799</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.1168870072471025</v>
+        <v>0.1168870072471026</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04293541092264207</v>
+        <v>0.04071969784661836</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2518327803864197</v>
+        <v>0.2629115229025333</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -8082,19 +8082,19 @@
         <v>3786</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1514</v>
+        <v>1441</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>6739</v>
+        <v>6824</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2984094141013502</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1193065855180842</v>
+        <v>0.1135923540917679</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5311640732618713</v>
+        <v>0.5378224533621807</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>12</v>
@@ -8103,19 +8103,19 @@
         <v>8143</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3912</v>
+        <v>4012</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13911</v>
+        <v>13593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1629889488843654</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.0782970841170387</v>
+        <v>0.08031303639042132</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2784466425303551</v>
+        <v>0.2720820112238301</v>
       </c>
     </row>
     <row r="14">
@@ -8132,19 +8132,19 @@
         <v>21021</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>14739</v>
+        <v>14425</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>26489</v>
+        <v>26375</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5640086295202427</v>
+        <v>0.5640086295202429</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.395441835250992</v>
+        <v>0.3870289114004155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7107267592640706</v>
+        <v>0.7076479687150966</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>9</v>
@@ -8153,19 +8153,19 @@
         <v>4701</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2254</v>
+        <v>2351</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7461</v>
+        <v>7539</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3704991323422129</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1776501505015854</v>
+        <v>0.1852915008160094</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.588006842558944</v>
+        <v>0.5941767231750233</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>29</v>
@@ -8174,19 +8174,19 @@
         <v>25722</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18910</v>
+        <v>19037</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>32496</v>
+        <v>32229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5148622805941799</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3785116549968637</v>
+        <v>0.3810476864324307</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.650451129889138</v>
+        <v>0.6451132665023582</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>8181</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3575</v>
+        <v>3911</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>14229</v>
+        <v>14457</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2195131875094549</v>
+        <v>0.219513187509455</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.09592968243105737</v>
+        <v>0.1049430771699636</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3817806369102523</v>
+        <v>0.3879010722985322</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>3</v>
@@ -8224,19 +8224,19 @@
         <v>1770</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4672</v>
+        <v>4598</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1394868432923891</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03314052770781352</v>
+        <v>0.03334597499013021</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.3682592302435442</v>
+        <v>0.3623732520011725</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>11</v>
@@ -8245,19 +8245,19 @@
         <v>9951</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5356</v>
+        <v>5365</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>16804</v>
+        <v>16305</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1991885900425371</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1071980458607535</v>
+        <v>0.1073896906904563</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3363503955867656</v>
+        <v>0.3263722769326379</v>
       </c>
     </row>
     <row r="16">
@@ -8278,19 +8278,19 @@
         <v>13075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7296</v>
+        <v>6900</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21358</v>
+        <v>21349</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.168103907640345</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.093800944370924</v>
+        <v>0.08871539914628178</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2745933141330527</v>
+        <v>0.2744777747524256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>12</v>
@@ -8299,19 +8299,19 @@
         <v>6308</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3372</v>
+        <v>3414</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10622</v>
+        <v>10993</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1138775771662</v>
+        <v>0.1138775771662001</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06086585185826511</v>
+        <v>0.0616233229462206</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1917472853342929</v>
+        <v>0.1984574147950147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>27</v>
@@ -8320,19 +8320,19 @@
         <v>19383</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>12744</v>
+        <v>11969</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>28044</v>
+        <v>28099</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1455484134805745</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09569636783448446</v>
+        <v>0.08987251108913313</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2105851856624151</v>
+        <v>0.2109964191626502</v>
       </c>
     </row>
     <row r="17">
@@ -8349,19 +8349,19 @@
         <v>6460</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2408</v>
+        <v>2604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>13769</v>
+        <v>14285</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08305093187813643</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03095815728522459</v>
+        <v>0.03347401577115398</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.177027884508949</v>
+        <v>0.1836538894329953</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>9</v>
@@ -8370,19 +8370,19 @@
         <v>8966</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4383</v>
+        <v>4244</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>15865</v>
+        <v>16149</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1618552364282655</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0791227751553551</v>
+        <v>0.0766094985360999</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2863958760944937</v>
+        <v>0.2915210113752105</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>16</v>
@@ -8391,19 +8391,19 @@
         <v>15425</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>8750</v>
+        <v>9189</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>24249</v>
+        <v>24657</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1158296579232762</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.06570189622882067</v>
+        <v>0.06899836867042394</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1820858562137269</v>
+        <v>0.1851521465301014</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>42686</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>32230</v>
+        <v>33032</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>52038</v>
+        <v>52685</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5487979177285609</v>
+        <v>0.548797917728561</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.4143693137268439</v>
+        <v>0.4246913319851133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6690408712190675</v>
+        <v>0.6773588536691674</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>50</v>
@@ -8441,19 +8441,19 @@
         <v>36005</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>29693</v>
+        <v>28478</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>41665</v>
+        <v>41578</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.6499746083894676</v>
+        <v>0.6499746083894677</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5360347901678867</v>
+        <v>0.5141033790326104</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.7521531716650118</v>
+        <v>0.7505919320497689</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>88</v>
@@ -8462,19 +8462,19 @@
         <v>78690</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>66285</v>
+        <v>65884</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>90250</v>
+        <v>90017</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5908824592299463</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4977360290104933</v>
+        <v>0.4947179735785666</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6776874384246914</v>
+        <v>0.675938579994961</v>
       </c>
     </row>
     <row r="19">
@@ -8491,19 +8491,19 @@
         <v>15560</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9103</v>
+        <v>8655</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>28643</v>
+        <v>26788</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2000472427529575</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1170321948896003</v>
+        <v>0.1112736150197278</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.368262237453483</v>
+        <v>0.3444118008512599</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -8512,19 +8512,19 @@
         <v>4115</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1555</v>
+        <v>1787</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7945</v>
+        <v>7765</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07429257801606674</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02807743011499194</v>
+        <v>0.03225493570196575</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1434193836572497</v>
+        <v>0.1401789196848146</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>21</v>
@@ -8533,19 +8533,19 @@
         <v>19675</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>12027</v>
+        <v>12394</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>32763</v>
+        <v>32352</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1477394693662029</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.09031189221973655</v>
+        <v>0.09306568778218695</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2460172166422978</v>
+        <v>0.2429333907237638</v>
       </c>
     </row>
     <row r="20">
@@ -8566,19 +8566,19 @@
         <v>4194</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1664</v>
+        <v>1572</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8384</v>
+        <v>9032</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1040235580774427</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04127990881953016</v>
+        <v>0.03899685230789339</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2079285557666566</v>
+        <v>0.223992615758545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>17</v>
@@ -8587,19 +8587,19 @@
         <v>9013</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5022</v>
+        <v>5499</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13754</v>
+        <v>14653</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1582411429251315</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08816857732427506</v>
+        <v>0.096539574792782</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.241476047618293</v>
+        <v>0.2572464832423383</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>24</v>
@@ -8608,19 +8608,19 @@
         <v>13208</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>8645</v>
+        <v>8548</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>20001</v>
+        <v>19831</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1357690856986937</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08887073827725374</v>
+        <v>0.08787161794244934</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2056002308068121</v>
+        <v>0.2038556519528114</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>4449</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>793</v>
+        <v>878</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>13337</v>
+        <v>13566</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1103380630986027</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01965822599119673</v>
+        <v>0.0217856516165835</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3307819387946002</v>
+        <v>0.3364491258353215</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>21</v>
@@ -8658,19 +8658,19 @@
         <v>11777</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7287</v>
+        <v>7111</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>17291</v>
+        <v>17004</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2067578415348327</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1279342632871631</v>
+        <v>0.1248500747615043</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3035648359387738</v>
+        <v>0.2985244556216239</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>24</v>
@@ -8679,19 +8679,19 @@
         <v>16226</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>10733</v>
+        <v>10344</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>25238</v>
+        <v>24965</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1667938559595553</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1103276983971372</v>
+        <v>0.1063284180902526</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2594363014694995</v>
+        <v>0.2566264801097369</v>
       </c>
     </row>
     <row r="22">
@@ -8708,19 +8708,19 @@
         <v>26441</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>18779</v>
+        <v>18208</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>32903</v>
+        <v>32470</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6557589750485087</v>
+        <v>0.6557589750485084</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4657422146994598</v>
+        <v>0.4515757586775838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8160374016609303</v>
+        <v>0.80529404398326</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>47</v>
@@ -8729,19 +8729,19 @@
         <v>27624</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>20363</v>
+        <v>20794</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33319</v>
+        <v>33726</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.4849690726968569</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3574961336270259</v>
+        <v>0.3650715347230351</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5849496869318895</v>
+        <v>0.5920977721719325</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -8750,19 +8750,19 @@
         <v>54065</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>44545</v>
+        <v>44106</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>63747</v>
+        <v>63752</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5557579222947497</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4579042049029923</v>
+        <v>0.4533918247672112</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6552862206468352</v>
+        <v>0.6553367159633808</v>
       </c>
     </row>
     <row r="23">
@@ -8779,19 +8779,19 @@
         <v>5237</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2171</v>
+        <v>2288</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>11347</v>
+        <v>10911</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1298794037754461</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05385178109228467</v>
+        <v>0.0567503233605057</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2814119280694213</v>
+        <v>0.2706058693116159</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>11</v>
@@ -8800,19 +8800,19 @@
         <v>8546</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4075</v>
+        <v>3862</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>18972</v>
+        <v>18639</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.150031942843179</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.07153614381521814</v>
+        <v>0.06779632971066377</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3330787757709163</v>
+        <v>0.3272357154691276</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>18</v>
@@ -8821,19 +8821,19 @@
         <v>13783</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>7963</v>
+        <v>7883</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>26302</v>
+        <v>24158</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1416791360470012</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.08185618528424633</v>
+        <v>0.08103330717379145</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2703751105724783</v>
+        <v>0.2483292334829098</v>
       </c>
     </row>
     <row r="24">
@@ -8857,7 +8857,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4337</v>
+        <v>5002</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.06332926568588367</v>
@@ -8866,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3864977081532394</v>
+        <v>0.4457564911887597</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>21</v>
@@ -8875,19 +8875,19 @@
         <v>12862</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>8328</v>
+        <v>8105</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>19482</v>
+        <v>20122</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.261443513950067</v>
+        <v>0.2614435139500671</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1692665141202217</v>
+        <v>0.1647495974381109</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3959828849666509</v>
+        <v>0.4089961398911555</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>22</v>
@@ -8896,19 +8896,19 @@
         <v>13573</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>8368</v>
+        <v>8142</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>21970</v>
+        <v>21075</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2246482578197855</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1384912996293235</v>
+        <v>0.1347605511291362</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3636178343932841</v>
+        <v>0.3488158461590984</v>
       </c>
     </row>
     <row r="25">
@@ -8938,19 +8938,19 @@
         <v>5969</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3046</v>
+        <v>3190</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>10204</v>
+        <v>10562</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.121326000736664</v>
+        <v>0.1213260007366641</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.06190434519269718</v>
+        <v>0.06483253696198571</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2074052097444448</v>
+        <v>0.2146845457652375</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>11</v>
@@ -8959,19 +8959,19 @@
         <v>5969</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2812</v>
+        <v>3039</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>10280</v>
+        <v>10025</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.09879243078153749</v>
+        <v>0.09879243078153752</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04654015812497095</v>
+        <v>0.05029675509066522</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1701493339669857</v>
+        <v>0.1659252356537638</v>
       </c>
     </row>
     <row r="26">
@@ -8988,7 +8988,7 @@
         <v>8868</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3251</v>
+        <v>4041</v>
       </c>
       <c r="F26" s="5" t="n">
         <v>11222</v>
@@ -8997,7 +8997,7 @@
         <v>0.7902730291822511</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2897242059613405</v>
+        <v>0.3600606107940472</v>
       </c>
       <c r="I26" s="6" t="n">
         <v>1</v>
@@ -9009,19 +9009,19 @@
         <v>24291</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>17931</v>
+        <v>18096</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>30933</v>
+        <v>30647</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.4937300208522852</v>
+        <v>0.4937300208522854</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3644661195141673</v>
+        <v>0.3678266537147282</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6287399031362108</v>
+        <v>0.6229252631980965</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>38</v>
@@ -9030,19 +9030,19 @@
         <v>33159</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>25128</v>
+        <v>25500</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>41252</v>
+        <v>40883</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5488062005856837</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.4158955149343158</v>
+        <v>0.4220538410005091</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6827580923421807</v>
+        <v>0.6766547620912665</v>
       </c>
     </row>
     <row r="27">
@@ -9062,7 +9062,7 @@
         <v>0</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8084</v>
+        <v>7038</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1463977051318653</v>
@@ -9071,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.7203303923172183</v>
+        <v>0.6271359990412708</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>10</v>
@@ -9080,19 +9080,19 @@
         <v>6076</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>2947</v>
+        <v>2883</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>11367</v>
+        <v>10890</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1235004644609837</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05990108889969101</v>
+        <v>0.05859165244835586</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.2310515056745384</v>
+        <v>0.2213591074525923</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>11</v>
@@ -9101,19 +9101,19 @@
         <v>7719</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3724</v>
+        <v>3897</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>13815</v>
+        <v>14122</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1277531108129932</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06163675459112924</v>
+        <v>0.06450073670967865</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2286494653288983</v>
+        <v>0.2337342906623172</v>
       </c>
     </row>
     <row r="28">
@@ -9134,19 +9134,19 @@
         <v>33202</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>22831</v>
+        <v>23596</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>44336</v>
+        <v>46444</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1521690183265439</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.10463847755982</v>
+        <v>0.1081426291942924</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2031959978610534</v>
+        <v>0.2128578555903801</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>69</v>
@@ -9155,19 +9155,19 @@
         <v>39396</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>31256</v>
+        <v>30965</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>50072</v>
+        <v>49004</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1747721268063437</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1386619183237932</v>
+        <v>0.1373687146546836</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2221349376019031</v>
+        <v>0.2173973768411046</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>108</v>
@@ -9176,19 +9176,19 @@
         <v>72598</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>59546</v>
+        <v>58751</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>88185</v>
+        <v>89184</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1636544962952897</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1342316652656396</v>
+        <v>0.1324409240723365</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.1987931302038641</v>
+        <v>0.2010445337553282</v>
       </c>
     </row>
     <row r="29">
@@ -9205,19 +9205,19 @@
         <v>18847</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>11580</v>
+        <v>11621</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>30460</v>
+        <v>29432</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.08637580423129149</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.05307158417411693</v>
+        <v>0.05326129021629107</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1396039569803591</v>
+        <v>0.1348919010562639</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>64</v>
@@ -9226,19 +9226,19 @@
         <v>42255</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>32013</v>
+        <v>33155</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>53027</v>
+        <v>52578</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1874552211784452</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1420212609123317</v>
+        <v>0.1470881203027034</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2352450314257037</v>
+        <v>0.2332528099851187</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>84</v>
@@ -9247,19 +9247,19 @@
         <v>61101</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>48760</v>
+        <v>48895</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>76356</v>
+        <v>77962</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.137738005915973</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1099168660848197</v>
+        <v>0.1102232711843623</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1721259706111799</v>
+        <v>0.1757461192141304</v>
       </c>
     </row>
     <row r="30">
@@ -9276,19 +9276,19 @@
         <v>130144</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>113480</v>
+        <v>114094</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>146742</v>
+        <v>146029</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.5964636553984857</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.5200926980494518</v>
+        <v>0.5229063672137936</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.6725376918033539</v>
+        <v>0.6692670042305752</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>178</v>
@@ -9297,19 +9297,19 @@
         <v>117502</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>104278</v>
+        <v>102911</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>129892</v>
+        <v>130001</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.5212744011453713</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4626120657962293</v>
+        <v>0.4565472497215763</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.5762440071290101</v>
+        <v>0.5767246920518201</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>292</v>
@@ -9318,19 +9318,19 @@
         <v>247645</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>226459</v>
+        <v>223157</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>268052</v>
+        <v>265499</v>
       </c>
       <c r="U30" s="6" t="n">
-        <v>0.5582572058748569</v>
+        <v>0.5582572058748568</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.5104984864434658</v>
+        <v>0.503053893251925</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.6042605024114341</v>
+        <v>0.5985042984883593</v>
       </c>
     </row>
     <row r="31">
@@ -9347,19 +9347,19 @@
         <v>36000</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>25501</v>
+        <v>25850</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>51067</v>
+        <v>50143</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1649915220436788</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1168742968539872</v>
+        <v>0.11847400737532</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2340481744938689</v>
+        <v>0.2298134844567522</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>40</v>
@@ -9368,19 +9368,19 @@
         <v>26260</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>18653</v>
+        <v>19031</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>37766</v>
+        <v>40380</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1164982508698399</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.08274903910265059</v>
+        <v>0.08442792172889346</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1675430440766116</v>
+        <v>0.1791377699304828</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>76</v>
@@ -9389,19 +9389,19 @@
         <v>62260</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>49110</v>
+        <v>48592</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>80188</v>
+        <v>80005</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1403502919138804</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.110707635159061</v>
+        <v>0.1095386754538081</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1807642403487996</v>
+        <v>0.1803515137947158</v>
       </c>
     </row>
     <row r="32">
